--- a/biology/Virologie/Pelarspovirus/Pelarspovirus.xlsx
+++ b/biology/Virologie/Pelarspovirus/Pelarspovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelarspovirus est  un genre de virus de la famille des Tombusviridae, sous-famille des  Procedovirinae, qui comprend six espèces acceptées par l'ICTV, dont l'espèce-type, Pelargonium line pattern virus (virus des lignes en arabesque du Pelargonium). 
 Ce sont des virus à ARN linéaire, à simple brin de polarité positive, classés dans le groupe IV de la classification Baltimore.
@@ -516,9 +528,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, «  Pelarspovirus », est une combinaison dérivée du nom du PelRSV, Pelargonium ringspot virus, espèce rattachée à ce genre qui fut la première à être nommée et décrite[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, «  Pelarspovirus », est une combinaison dérivée du nom du PelRSV, Pelargonium ringspot virus, espèce rattachée à ce genre qui fut la première à être nommée et décrite.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non-enveloppées, de forme sphérique, de 28 à 34 nm de diamètre. La capside à symétrie icosaédrique de type T=3, est composée de 30 capsomères hexamériques (le virion est constitué de 180 sous-unités protéiques)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non-enveloppées, de forme sphérique, de 28 à 34 nm de diamètre. La capside à symétrie icosaédrique de type T=3, est composée de 30 capsomères hexamériques (le virion est constitué de 180 sous-unités protéiques).
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome, monopartite, est constitué d'une molécule d'ARN linéaire à simple brin de sens positif, de 3,9 kb[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome, monopartite, est constitué d'une molécule d'ARN linéaire à simple brin de sens positif, de 3,9 kb.
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun vecteur biologique n'est connu pour aucune des espèces du genre et la transmission se produit principalement par le biais du matériel de propagation (multiplication végétative).
-Toutes les espèces du genre, à l'exception du RrLDV,  peuvent être facilement transmises par inoculation mécanique de sève à des hôtes expérimentaux communs tels que Chenopodium quinoa, Nicotiana benthamiana ou Nicotiana clevelandii[4].
+Toutes les espèces du genre, à l'exception du RrLDV,  peuvent être facilement transmises par inoculation mécanique de sève à des hôtes expérimentaux communs tels que Chenopodium quinoa, Nicotiana benthamiana ou Nicotiana clevelandii.
 </t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 février 2021)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 février 2021) :
 Clematis chlorotic mottle virus (CCMV)
 Elderberry latent virus (ELV)
 Pelargonium chlorotic ring pattern virus (PCRPV)
